--- a/nlpgraphs.xlsx
+++ b/nlpgraphs.xlsx
@@ -12,22 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Word Size</t>
-  </si>
-  <si>
-    <t>Accuracy (1 guess)</t>
-  </si>
-  <si>
-    <t>Accuracy (2 guesses)</t>
-  </si>
-  <si>
-    <t>Accuracy (3 guesses)</t>
   </si>
   <si>
     <t>Number Words</t>
@@ -51,10 +43,34 @@
     <t>no sp/err</t>
   </si>
   <si>
-    <t>No sp/no errors</t>
+    <t>sp/err</t>
   </si>
   <si>
-    <t>sp/err</t>
+    <t>1 guess</t>
+  </si>
+  <si>
+    <t>2 guesses</t>
+  </si>
+  <si>
+    <t>3 guesses</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Overall Accuracy</t>
+  </si>
+  <si>
+    <t>no sp/no err</t>
+  </si>
+  <si>
+    <t>No P(letter)</t>
+  </si>
+  <si>
+    <t>P(letter) Training Set</t>
+  </si>
+  <si>
+    <t>P(letter) English</t>
   </si>
 </sst>
 </file>
@@ -120,6 +136,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Word</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Recognition Statistics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -135,7 +175,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy (1 guess)</c:v>
+                  <c:v>1 guess</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -262,7 +302,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy (2 guesses)</c:v>
+                  <c:v>2 guesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -389,7 +429,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy (3 guesses)</c:v>
+                  <c:v>3 guesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -515,37 +555,76 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54696192"/>
-        <c:axId val="54684288"/>
+        <c:axId val="58550912"/>
+        <c:axId val="58561280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54696192"/>
+        <c:axId val="58550912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Word Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54684288"/>
+        <c:crossAx val="58561280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54684288"/>
+        <c:axId val="58561280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.88000000000000012"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54696192"/>
+        <c:crossAx val="58550912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -581,6 +660,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ML Word Recognition</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Statistics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -596,7 +699,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy (1 guess)</c:v>
+                  <c:v>1 guess</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -723,7 +826,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy (2 guesses)</c:v>
+                  <c:v>2 guesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -850,7 +953,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy (3 guesses)</c:v>
+                  <c:v>3 guesses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -976,37 +1079,76 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153016960"/>
-        <c:axId val="153015424"/>
+        <c:axId val="68426368"/>
+        <c:axId val="68428160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153016960"/>
+        <c:axId val="68426368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Word Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153015424"/>
+        <c:crossAx val="68428160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153015424"/>
+        <c:axId val="68428160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153016960"/>
+        <c:crossAx val="68426368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1042,6 +1184,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brown Corpus Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Words vs Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1198,20 +1364,39 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138715904"/>
-        <c:axId val="138717824"/>
+        <c:axId val="68457216"/>
+        <c:axId val="68458752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138715904"/>
+        <c:axId val="68457216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Word Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138717824"/>
+        <c:crossAx val="68458752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1219,18 +1404,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138717824"/>
+        <c:axId val="68458752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Words</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138715904"/>
+        <c:crossAx val="68457216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1261,6 +1470,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Corpus Word Frequency vs Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1417,20 +1650,39 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127257600"/>
-        <c:axId val="136270976"/>
+        <c:axId val="68471040"/>
+        <c:axId val="58785792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127257600"/>
+        <c:axId val="68471040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Word Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136270976"/>
+        <c:crossAx val="58785792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1438,31 +1690,41 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136270976"/>
+        <c:axId val="58785792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127257600"/>
+        <c:crossAx val="68471040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1757,37 +2019,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136577408"/>
-        <c:axId val="136489600"/>
+        <c:axId val="58820864"/>
+        <c:axId val="58822656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136577408"/>
+        <c:axId val="58820864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Word Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136489600"/>
+        <c:crossAx val="58822656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136489600"/>
+        <c:axId val="58822656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136577408"/>
+        <c:crossAx val="58820864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2091,37 +2391,75 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126979072"/>
-        <c:axId val="126976000"/>
+        <c:axId val="58847616"/>
+        <c:axId val="58849152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126979072"/>
+        <c:axId val="58847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Word Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126976000"/>
+        <c:crossAx val="58849152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126976000"/>
+        <c:axId val="58849152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126979072"/>
+        <c:crossAx val="58847616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2172,7 +2510,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No sp/no errors</c:v>
+                  <c:v>no sp/no err</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2391,11 +2729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136138112"/>
-        <c:axId val="136129536"/>
+        <c:axId val="124174336"/>
+        <c:axId val="124175872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136138112"/>
+        <c:axId val="124174336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,12 +2743,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136129536"/>
+        <c:crossAx val="124175872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136129536"/>
+        <c:axId val="124175872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136138112"/>
+        <c:crossAx val="124174336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2431,6 +2769,131 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$103:$F$103</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>no sp/no err</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sp/no err</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>no sp/err</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sp/err</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$104:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="126375424"/>
+        <c:axId val="126377344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126375424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126377344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126377344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126375424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2538,15 +3001,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2650,6 +3113,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2945,10 +3438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F106"/>
+  <dimension ref="B1:S123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P108" sqref="P108"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,21 +3452,21 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2986,8 +3479,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3000,8 +3499,14 @@
       <c r="E3">
         <v>0.99299999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>73.44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3014,8 +3519,14 @@
       <c r="E4">
         <v>0.98299999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>74.17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -3028,8 +3539,14 @@
       <c r="E5">
         <v>0.96599999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -3042,8 +3559,14 @@
       <c r="E6">
         <v>0.97799999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>50</v>
+      </c>
+      <c r="S6">
+        <v>72.290000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3056,8 +3579,14 @@
       <c r="E7">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -3071,7 +3600,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -3085,7 +3614,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -3099,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -3113,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -3127,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -3141,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -3155,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -3169,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -3188,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -3412,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -3540,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -3665,10 +4194,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -3838,13 +4367,13 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
@@ -4014,16 +4543,16 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
@@ -4077,9 +4606,185 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D109">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D110">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D111">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D112">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>0.93</v>
+      </c>
+      <c r="D113">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D114">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D115">
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D116">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>0.99</v>
+      </c>
+      <c r="D117">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D118">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119">
+        <v>0.996</v>
+      </c>
+      <c r="D119">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>0.997</v>
+      </c>
+      <c r="D120">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>13</v>
+      </c>
+      <c r="C121">
+        <v>0.995</v>
+      </c>
+      <c r="D121">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>0.998</v>
+      </c>
+      <c r="D122">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>0.997</v>
+      </c>
+      <c r="D123">
+        <v>0.997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4088,7 +4793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/nlpgraphs.xlsx
+++ b/nlpgraphs.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -555,11 +554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58550912"/>
-        <c:axId val="58561280"/>
+        <c:axId val="36532608"/>
+        <c:axId val="36535296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58550912"/>
+        <c:axId val="36532608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,12 +587,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58561280"/>
+        <c:crossAx val="36535296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58561280"/>
+        <c:axId val="36535296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.88000000000000012"/>
@@ -624,7 +623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58550912"/>
+        <c:crossAx val="36532608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1079,11 +1078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68426368"/>
-        <c:axId val="68428160"/>
+        <c:axId val="37393536"/>
+        <c:axId val="37418496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68426368"/>
+        <c:axId val="37393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,12 +1111,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68428160"/>
+        <c:crossAx val="37418496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68428160"/>
+        <c:axId val="37418496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -1148,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68426368"/>
+        <c:crossAx val="37393536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1364,11 +1363,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68457216"/>
-        <c:axId val="68458752"/>
+        <c:axId val="37689600"/>
+        <c:axId val="37716352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68457216"/>
+        <c:axId val="37689600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68458752"/>
+        <c:crossAx val="37716352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1404,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68458752"/>
+        <c:axId val="37716352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68457216"/>
+        <c:crossAx val="37689600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1650,11 +1649,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68471040"/>
-        <c:axId val="58785792"/>
+        <c:axId val="46404736"/>
+        <c:axId val="46485504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68471040"/>
+        <c:axId val="46404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +1681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58785792"/>
+        <c:crossAx val="46485504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1690,7 +1689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58785792"/>
+        <c:axId val="46485504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68471040"/>
+        <c:crossAx val="46404736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1751,6 +1750,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent Accuracy No</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Errors</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1962,49 +1985,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.99199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.69599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.89800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.98499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99099999999999999</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99299999999999999</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,11 +2042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58820864"/>
-        <c:axId val="58822656"/>
+        <c:axId val="53072640"/>
+        <c:axId val="53088256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58820864"/>
+        <c:axId val="53072640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,12 +2075,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58822656"/>
+        <c:crossAx val="53088256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58822656"/>
+        <c:axId val="53088256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58820864"/>
+        <c:crossAx val="53072640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2123,6 +2146,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent Accuracy One Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2334,49 +2376,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.69599999999999995</c:v>
+                  <c:v>0.68899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57899999999999996</c:v>
+                  <c:v>0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72799999999999998</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65200000000000002</c:v>
+                  <c:v>0.68300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.753</c:v>
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82199999999999995</c:v>
+                  <c:v>0.82599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88500000000000001</c:v>
+                  <c:v>0.88200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92900000000000005</c:v>
+                  <c:v>0.91500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95599999999999996</c:v>
+                  <c:v>0.95299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97599999999999998</c:v>
+                  <c:v>0.98099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98399999999999999</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98799999999999999</c:v>
+                  <c:v>0.98599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98699999999999999</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2391,11 +2433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58847616"/>
-        <c:axId val="58849152"/>
+        <c:axId val="53324800"/>
+        <c:axId val="57004800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58847616"/>
+        <c:axId val="53324800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,12 +2466,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58849152"/>
+        <c:crossAx val="57004800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58849152"/>
+        <c:axId val="57004800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58847616"/>
+        <c:crossAx val="53324800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2495,306 +2537,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$103</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>no sp/no err</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$104:$B$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$104:$C$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.93100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$103</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sp/no err</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$104:$B$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$104:$D$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.79900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$103</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>no sp/err</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$104:$B$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$104:$E$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.70199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90600000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$103</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sp/err</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$104:$B$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$104:$F$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.72899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.876</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92700000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="124174336"/>
-        <c:axId val="124175872"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="124174336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124175872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="124175872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124174336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Overall Accuracy With Spellchecking</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Errrors</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2836,41 +2602,61 @@
                   <c:v>0.93100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79900000000000004</c:v>
+                  <c:v>0.84099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.70199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72899999999999998</c:v>
+                  <c:v>0.73699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126375424"/>
-        <c:axId val="126377344"/>
+        <c:axId val="56870016"/>
+        <c:axId val="56871552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126375424"/>
+        <c:axId val="56870016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Settings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126377344"/>
+        <c:crossAx val="56871552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2878,18 +2664,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126377344"/>
+        <c:axId val="56871552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126375424"/>
+        <c:crossAx val="56870016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3090,46 +2895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3142,7 +2917,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3440,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,7 +3983,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="D70">
-        <v>0.99199999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -4219,7 +3994,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="D71">
-        <v>0.57499999999999996</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -4230,7 +4005,7 @@
         <v>0.94099999999999995</v>
       </c>
       <c r="D72">
-        <v>0.83399999999999996</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -4241,7 +4016,7 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="D73">
-        <v>0.69599999999999995</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -4252,7 +4027,7 @@
         <v>0.93</v>
       </c>
       <c r="D74">
-        <v>0.79700000000000004</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -4263,7 +4038,7 @@
         <v>0.95599999999999996</v>
       </c>
       <c r="D75">
-        <v>0.87</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -4274,7 +4049,7 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="D76">
-        <v>0.89800000000000002</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -4285,7 +4060,7 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="D77">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -4296,7 +4071,7 @@
         <v>0.99</v>
       </c>
       <c r="D78">
-        <v>0.95699999999999996</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -4307,7 +4082,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="D79">
-        <v>0.96899999999999997</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -4318,7 +4093,7 @@
         <v>0.996</v>
       </c>
       <c r="D80">
-        <v>0.98499999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -4329,7 +4104,7 @@
         <v>0.997</v>
       </c>
       <c r="D81">
-        <v>0.98399999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -4340,7 +4115,7 @@
         <v>0.995</v>
       </c>
       <c r="D82">
-        <v>0.99099999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -4351,7 +4126,7 @@
         <v>0.998</v>
       </c>
       <c r="D83">
-        <v>0.99299999999999999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -4362,7 +4137,7 @@
         <v>0.997</v>
       </c>
       <c r="D84">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
@@ -4384,7 +4159,7 @@
         <v>0.70799999999999996</v>
       </c>
       <c r="D87">
-        <v>0.69599999999999995</v>
+        <v>0.68899999999999995</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
@@ -4395,7 +4170,7 @@
         <v>0.436</v>
       </c>
       <c r="D88">
-        <v>0.57899999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
@@ -4406,7 +4181,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="D89">
-        <v>0.72799999999999998</v>
+        <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -4417,7 +4192,7 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="D90">
-        <v>0.65200000000000002</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -4428,7 +4203,7 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="D91">
-        <v>0.753</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
@@ -4439,7 +4214,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="D92">
-        <v>0.82199999999999995</v>
+        <v>0.82599999999999996</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -4450,7 +4225,7 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="D93">
-        <v>0.88500000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
@@ -4461,7 +4236,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="D94">
-        <v>0.92900000000000005</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
@@ -4472,7 +4247,7 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="D95">
-        <v>0.95599999999999996</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -4483,7 +4258,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="D96">
-        <v>0.97599999999999998</v>
+        <v>0.98099999999999998</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
@@ -4494,7 +4269,7 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="D97">
-        <v>0.98399999999999999</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
@@ -4505,7 +4280,7 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="D98">
-        <v>0.98799999999999999</v>
+        <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
@@ -4516,7 +4291,7 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="D99">
-        <v>0.98699999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
@@ -4527,7 +4302,7 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="D100">
-        <v>0.99399999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
@@ -4538,7 +4313,7 @@
         <v>0.995</v>
       </c>
       <c r="D101">
-        <v>0.98899999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
@@ -4563,47 +4338,13 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="D104">
-        <v>0.79900000000000004</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="E104">
         <v>0.70199999999999996</v>
       </c>
       <c r="F104">
-        <v>0.72899999999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D105">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="E105">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="F105">
-        <v>0.876</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <v>3</v>
-      </c>
-      <c r="C106">
-        <v>0.995</v>
-      </c>
-      <c r="D106">
-        <v>0.94</v>
-      </c>
-      <c r="E106">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="F106">
-        <v>0.92700000000000005</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
